--- a/2020/February/All Details/13.02.2020/MC Balance Transfer Feb'2020.xlsx
+++ b/2020/February/All Details/13.02.2020/MC Balance Transfer Feb'2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\February\All Details\13.02.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF671BAC-8834-428D-8378-E73D357CE482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA05F1D1-0EE7-4383-A767-5D429CC2F39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0" shapeId="0" xr:uid="{A936B079-254C-44B3-8E76-3861C85BDEED}">
+    <comment ref="C95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>i110 Babod</t>
+  </si>
+  <si>
+    <t>Kabir</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2798,14 +2801,14 @@
         <v>729485</v>
       </c>
       <c r="C16" s="2">
-        <v>28450</v>
+        <v>528450</v>
       </c>
       <c r="D16" s="2">
         <v>1455</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>29905</v>
+        <v>529905</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="53"/>
@@ -3966,7 +3969,7 @@
       </c>
       <c r="C33" s="2">
         <f>SUM(C5:C32)</f>
-        <v>3924178</v>
+        <v>4424178</v>
       </c>
       <c r="D33" s="2">
         <f>SUM(D5:D32)</f>
@@ -3974,11 +3977,11 @@
       </c>
       <c r="E33" s="2">
         <f>SUM(E5:E32)</f>
-        <v>3937588</v>
+        <v>4437588</v>
       </c>
       <c r="F33" s="94">
         <f>B33-E33</f>
-        <v>561872</v>
+        <v>61872</v>
       </c>
       <c r="G33" s="114"/>
       <c r="H33" s="124"/>
@@ -4179,11 +4182,11 @@
       </c>
       <c r="E36" s="133">
         <f>F33-C98+K121</f>
-        <v>658493</v>
+        <v>0</v>
       </c>
       <c r="F36" s="90">
         <f>F33-C98-I43-I42+K121-C103</f>
-        <v>658493</v>
+        <v>0</v>
       </c>
       <c r="G36" s="114"/>
       <c r="H36" s="124"/>
@@ -4462,10 +4465,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="2">
-        <v>9100</v>
+        <v>13600</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="134"/>
@@ -4743,7 +4746,7 @@
       <c r="A44" s="73"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75">
-        <v>0</v>
+        <v>6433</v>
       </c>
       <c r="D44" s="76"/>
       <c r="E44" s="3"/>
@@ -5130,10 +5133,10 @@
       </c>
       <c r="B50" s="43"/>
       <c r="C50" s="98">
-        <v>99280</v>
+        <v>99960</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="12"/>
@@ -5197,7 +5200,7 @@
       </c>
       <c r="B51" s="43"/>
       <c r="C51" s="98">
-        <v>347260</v>
+        <v>540640</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>86</v>
@@ -5538,7 +5541,7 @@
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="98">
-        <v>121340</v>
+        <v>101340</v>
       </c>
       <c r="D56" s="97" t="s">
         <v>86</v>
@@ -5814,10 +5817,10 @@
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="98">
-        <v>148600</v>
+        <v>118600</v>
       </c>
       <c r="D60" s="99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="43"/>
@@ -8282,10 +8285,16 @@
       <c r="BI93" s="7"/>
     </row>
     <row r="94" spans="1:61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="105"/>
+      <c r="A94" s="105" t="s">
+        <v>91</v>
+      </c>
       <c r="B94" s="99"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="97"/>
+      <c r="C94" s="98">
+        <v>3500</v>
+      </c>
+      <c r="D94" s="97" t="s">
+        <v>87</v>
+      </c>
       <c r="F94" s="24"/>
       <c r="G94" s="13" t="s">
         <v>43</v>
@@ -8584,7 +8593,7 @@
       <c r="B98" s="154"/>
       <c r="C98" s="45">
         <f>SUM(C37:C97)</f>
-        <v>1805352</v>
+        <v>1963845</v>
       </c>
       <c r="D98" s="41"/>
       <c r="F98" s="23"/>
@@ -8719,7 +8728,7 @@
       <c r="B100" s="152"/>
       <c r="C100" s="42">
         <f>C98+L121</f>
-        <v>1805352</v>
+        <v>1963845</v>
       </c>
       <c r="D100" s="26"/>
       <c r="F100" s="24"/>
